--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>鲜于春来</t>
+  </si>
+  <si>
+    <t>课堂代码复习</t>
   </si>
   <si>
     <t>陈凯成</t>
@@ -211,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -247,6 +250,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -270,7 +303,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,85 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,20 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,187 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +643,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -659,22 +686,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,26 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -728,15 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,145 +748,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1700,7 +1703,9 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="12"/>
@@ -1713,13 +1718,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1737,10 +1742,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1757,7 +1762,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1779,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
@@ -1805,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1827,13 +1832,13 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1849,7 +1854,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1869,10 +1874,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1891,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1913,13 +1918,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1935,13 +1940,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -1959,13 +1964,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1981,13 +1986,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2007,13 +2012,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2031,13 +2036,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2055,13 +2060,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2077,13 +2082,13 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>12</v>
@@ -2101,13 +2106,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="8640"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -262,6 +262,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -270,14 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -287,15 +355,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -332,72 +392,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,6 +414,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,25 +462,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,84 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,30 +595,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,11 +664,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,45 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -737,15 +746,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,10 +754,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,133 +766,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2074,7 +2074,9 @@
       <c r="D36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="8640"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,28 +85,28 @@
     <t>熊志祥</t>
   </si>
   <si>
+    <t>石水山</t>
+  </si>
+  <si>
+    <t>几乎没有进度</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>蔡林</t>
+  </si>
+  <si>
+    <t>许寒</t>
+  </si>
+  <si>
+    <t>卡在覆盖</t>
+  </si>
+  <si>
+    <t>杜大文</t>
+  </si>
+  <si>
     <t>未知</t>
-  </si>
-  <si>
-    <t>石水山</t>
-  </si>
-  <si>
-    <t>几乎没有进度</t>
-  </si>
-  <si>
-    <t>刘鹏</t>
-  </si>
-  <si>
-    <t>蔡林</t>
-  </si>
-  <si>
-    <t>许寒</t>
-  </si>
-  <si>
-    <t>卡在覆盖</t>
-  </si>
-  <si>
-    <t>杜大文</t>
   </si>
   <si>
     <t>赖瑞</t>
@@ -383,9 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,8 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +420,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,61 +450,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +528,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,91 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,6 +1047,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1302,17 +1307,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1586,10 +1590,12 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
@@ -1603,13 +1609,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1629,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1653,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1675,13 +1681,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1699,10 +1705,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +259,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -273,8 +287,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -283,22 +311,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,15 +325,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,22 +372,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,29 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -417,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,41 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +731,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -777,15 +786,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,8 +1308,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E17 E18 E19 E20 E22 E23 E26 E27 E28 E30 E32 E34 E36 E38"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2135,7 +2135,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,13 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -288,44 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -344,9 +299,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,14 +322,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,187 +423,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,17 +757,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -792,6 +787,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +818,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +995,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1062,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1308,17 +1322,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1397,12 +1410,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1429,12 +1442,12 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1457,12 +1470,12 @@
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1483,12 +1496,12 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1509,12 +1522,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
@@ -1533,12 +1546,12 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1557,12 +1570,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1579,12 +1592,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1601,12 +1614,12 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1625,12 +1638,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="14" t="s">
@@ -1649,12 +1662,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1673,12 +1686,12 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1692,19 +1705,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
         <v>11</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1721,12 +1734,12 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1743,12 +1756,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="14" t="s">
@@ -1767,12 +1780,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1791,12 +1804,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1809,18 +1822,18 @@
       <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1837,12 +1850,12 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1859,12 +1872,12 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
@@ -1883,12 +1896,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="14"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
@@ -1901,18 +1914,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
@@ -1931,12 +1944,12 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
@@ -1953,12 +1966,12 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
@@ -1975,12 +1988,12 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="14" t="s">
@@ -1999,12 +2012,12 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
@@ -2025,12 +2038,12 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
@@ -2043,18 +2056,18 @@
       <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
@@ -2073,12 +2086,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
@@ -2091,18 +2104,18 @@
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="14" t="s">
@@ -2123,12 +2136,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
@@ -2143,18 +2156,18 @@
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -2173,12 +2186,12 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
@@ -2191,7 +2204,7 @@
       <c r="D37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2199,12 +2212,12 @@
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
@@ -2222,13 +2235,13 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
